--- a/RegressionTests/Unit_Test_14/aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/Unit_Test_14/aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -441,7 +441,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,13 +624,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -951,14 +944,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -971,6 +956,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="63">
@@ -1045,7 +1038,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1072,11 +1065,14 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2049,7 +2045,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
@@ -2069,7 +2065,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
@@ -2089,7 +2085,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
@@ -2109,7 +2105,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
@@ -2129,7 +2125,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
@@ -2149,7 +2145,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B8" t="s">
@@ -2169,7 +2165,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
@@ -2189,7 +2185,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B10" t="s">
@@ -2209,7 +2205,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B11" t="s">
@@ -2226,7 +2222,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B12" t="s">
@@ -2246,7 +2242,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B13" t="s">
@@ -2329,31 +2325,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="16" t="s">
         <v>89</v>
       </c>
     </row>
